--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_4.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C09D48-572D-6B4B-9168-AE55D1DCE519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27654F5-BBEA-2D4D-98F3-B47D2FB31566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="251">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -744,6 +744,48 @@
   </si>
   <si>
     <t>World Health Organization Clinical Staging of HIV/AIDS for Children Clinical Classification</t>
+  </si>
+  <si>
+    <t>Subcategory of External Data Type</t>
+  </si>
+  <si>
+    <t>CDSTYP</t>
+  </si>
+  <si>
+    <t>Used to collect a sub-category of the type of external data that is collected in the central data form.</t>
+  </si>
+  <si>
+    <t>SN000631</t>
+  </si>
+  <si>
+    <t>SC449</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Deoxyribonucleic Acid</t>
+  </si>
+  <si>
+    <t>Deoxyribonucleic Acid; Double-stranded DNA; dsDNA</t>
+  </si>
+  <si>
+    <t>A long linear double-stranded polymer formed from nucleotides attached to a deoxyribose backbone; associated with the transmission of genetic information.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S003970</t>
+  </si>
+  <si>
+    <t>IMMUNOPHENOTYPING</t>
+  </si>
+  <si>
+    <t>Immunophenotyping</t>
+  </si>
+  <si>
+    <t>(Synonym 1 NCI) The characterization of a set of cells according to the antigens expressed.</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD68"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3154,6 +3196,108 @@
       </c>
       <c r="Q38" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" t="s">
+        <v>240</v>
+      </c>
+      <c r="F39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J39" t="s">
+        <v>245</v>
+      </c>
+      <c r="K39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>243</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H40" t="s">
+        <v>249</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>249</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3193,15 +3337,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -3404,6 +3539,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
   <ds:schemaRefs>
@@ -3422,14 +3566,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3446,4 +3582,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_4.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27654F5-BBEA-2D4D-98F3-B47D2FB31566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87265FDB-4F51-9F4D-A402-4D0DD8DCDADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="252">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -786,6 +786,9 @@
   </si>
   <si>
     <t>(Synonym 1 NCI) The characterization of a set of cells according to the antigens expressed.</t>
+  </si>
+  <si>
+    <t>STUDY_USE</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1184,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,8 +1239,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1449,7 +1455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3331,9 +3337,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3540,27 +3549,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3585,9 +3582,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_4.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87265FDB-4F51-9F4D-A402-4D0DD8DCDADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C2706-A39F-5442-9E29-6B7543138379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="253">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -789,6 +789,9 @@
   </si>
   <si>
     <t>STUDY_USE</t>
+  </si>
+  <si>
+    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="T3" sqref="T3:T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1184,7 +1187,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,8 +1245,11 @@
       <c r="S1" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1295,8 +1301,11 @@
       <c r="Q2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1348,8 +1357,11 @@
       <c r="Q3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1401,8 +1413,11 @@
       <c r="Q4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1454,8 +1469,11 @@
       <c r="Q5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1507,8 +1525,11 @@
       <c r="Q6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1560,8 +1581,11 @@
       <c r="Q7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1613,8 +1637,11 @@
       <c r="Q8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1666,8 +1693,11 @@
       <c r="Q9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1719,8 +1749,11 @@
       <c r="Q10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1772,8 +1805,11 @@
       <c r="Q11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1825,8 +1861,11 @@
       <c r="Q12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1878,8 +1917,11 @@
       <c r="Q13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1931,8 +1973,11 @@
       <c r="Q14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1984,8 +2029,11 @@
       <c r="Q15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2037,8 +2085,11 @@
       <c r="Q16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2090,8 +2141,11 @@
       <c r="Q17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2143,8 +2197,11 @@
       <c r="Q18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2196,8 +2253,11 @@
       <c r="Q19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2249,8 +2309,11 @@
       <c r="Q20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2302,8 +2365,11 @@
       <c r="Q21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2355,8 +2421,11 @@
       <c r="Q22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2408,8 +2477,11 @@
       <c r="Q23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2461,8 +2533,11 @@
       <c r="Q24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2514,8 +2589,11 @@
       <c r="Q25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2567,8 +2645,11 @@
       <c r="Q26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2620,8 +2701,11 @@
       <c r="Q27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2673,8 +2757,11 @@
       <c r="Q28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2726,8 +2813,11 @@
       <c r="Q29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2779,8 +2869,11 @@
       <c r="Q30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2832,8 +2925,11 @@
       <c r="Q31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2885,8 +2981,11 @@
       <c r="Q32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2938,8 +3037,11 @@
       <c r="Q33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -2991,8 +3093,11 @@
       <c r="Q34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3044,8 +3149,11 @@
       <c r="Q35" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -3097,8 +3205,11 @@
       <c r="Q36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3150,8 +3261,11 @@
       <c r="Q37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -3203,8 +3317,11 @@
       <c r="Q38" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -3254,8 +3371,11 @@
       <c r="Q39" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -3304,6 +3424,9 @@
       </c>
       <c r="Q40" t="s">
         <v>246</v>
+      </c>
+      <c r="T40" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3337,12 +3460,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3549,15 +3669,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3582,18 +3714,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_4.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4C2706-A39F-5442-9E29-6B7543138379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD846D-D483-4E47-ACD9-B22C2492D257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="251">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -786,12 +786,6 @@
   </si>
   <si>
     <t>(Synonym 1 NCI) The characterization of a set of cells according to the antigens expressed.</t>
-  </si>
-  <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
-    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T40"/>
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1181,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,14 +1236,8 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1301,11 +1289,8 @@
       <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1357,11 +1342,8 @@
       <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="T3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1413,11 +1395,8 @@
       <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="T4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1469,11 +1448,8 @@
       <c r="Q5" t="s">
         <v>19</v>
       </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1525,11 +1501,8 @@
       <c r="Q6" t="s">
         <v>19</v>
       </c>
-      <c r="T6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1581,11 +1554,8 @@
       <c r="Q7" t="s">
         <v>19</v>
       </c>
-      <c r="T7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1637,11 +1607,8 @@
       <c r="Q8" t="s">
         <v>19</v>
       </c>
-      <c r="T8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1693,11 +1660,8 @@
       <c r="Q9" t="s">
         <v>19</v>
       </c>
-      <c r="T9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1749,11 +1713,8 @@
       <c r="Q10" t="s">
         <v>19</v>
       </c>
-      <c r="T10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1805,11 +1766,8 @@
       <c r="Q11" t="s">
         <v>19</v>
       </c>
-      <c r="T11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1861,11 +1819,8 @@
       <c r="Q12" t="s">
         <v>19</v>
       </c>
-      <c r="T12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1917,11 +1872,8 @@
       <c r="Q13" t="s">
         <v>19</v>
       </c>
-      <c r="T13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1973,11 +1925,8 @@
       <c r="Q14" t="s">
         <v>19</v>
       </c>
-      <c r="T14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2029,11 +1978,8 @@
       <c r="Q15" t="s">
         <v>19</v>
       </c>
-      <c r="T15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2085,11 +2031,8 @@
       <c r="Q16" t="s">
         <v>19</v>
       </c>
-      <c r="T16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2141,11 +2084,8 @@
       <c r="Q17" t="s">
         <v>19</v>
       </c>
-      <c r="T17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2197,11 +2137,8 @@
       <c r="Q18" t="s">
         <v>19</v>
       </c>
-      <c r="T18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2253,11 +2190,8 @@
       <c r="Q19" t="s">
         <v>19</v>
       </c>
-      <c r="T19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2309,11 +2243,8 @@
       <c r="Q20" t="s">
         <v>19</v>
       </c>
-      <c r="T20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2365,11 +2296,8 @@
       <c r="Q21" t="s">
         <v>19</v>
       </c>
-      <c r="T21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2421,11 +2349,8 @@
       <c r="Q22" t="s">
         <v>19</v>
       </c>
-      <c r="T22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2477,11 +2402,8 @@
       <c r="Q23" t="s">
         <v>19</v>
       </c>
-      <c r="T23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2533,11 +2455,8 @@
       <c r="Q24" t="s">
         <v>19</v>
       </c>
-      <c r="T24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2589,11 +2508,8 @@
       <c r="Q25" t="s">
         <v>19</v>
       </c>
-      <c r="T25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2645,11 +2561,8 @@
       <c r="Q26" t="s">
         <v>19</v>
       </c>
-      <c r="T26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2701,11 +2614,8 @@
       <c r="Q27" t="s">
         <v>19</v>
       </c>
-      <c r="T27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2757,11 +2667,8 @@
       <c r="Q28" t="s">
         <v>19</v>
       </c>
-      <c r="T28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2813,11 +2720,8 @@
       <c r="Q29" t="s">
         <v>19</v>
       </c>
-      <c r="T29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2869,11 +2773,8 @@
       <c r="Q30" t="s">
         <v>19</v>
       </c>
-      <c r="T30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2925,11 +2826,8 @@
       <c r="Q31" t="s">
         <v>19</v>
       </c>
-      <c r="T31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2981,11 +2879,8 @@
       <c r="Q32" t="s">
         <v>19</v>
       </c>
-      <c r="T32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -3037,11 +2932,8 @@
       <c r="Q33" t="s">
         <v>19</v>
       </c>
-      <c r="T33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -3093,11 +2985,8 @@
       <c r="Q34" t="s">
         <v>19</v>
       </c>
-      <c r="T34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3149,11 +3038,8 @@
       <c r="Q35" t="s">
         <v>19</v>
       </c>
-      <c r="T35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -3205,11 +3091,8 @@
       <c r="Q36" t="s">
         <v>19</v>
       </c>
-      <c r="T36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -3261,11 +3144,8 @@
       <c r="Q37" t="s">
         <v>19</v>
       </c>
-      <c r="T37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -3317,11 +3197,8 @@
       <c r="Q38" t="s">
         <v>19</v>
       </c>
-      <c r="T38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -3371,11 +3248,8 @@
       <c r="Q39" t="s">
         <v>246</v>
       </c>
-      <c r="T39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>237</v>
       </c>
@@ -3424,9 +3298,6 @@
       </c>
       <c r="Q40" t="s">
         <v>246</v>
-      </c>
-      <c r="T40" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3460,12 +3331,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -3668,6 +3533,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3678,23 +3549,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3713,6 +3567,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
   <ds:schemaRefs>
